--- a/Duran Amezcua María Angélica 20212.xlsx
+++ b/Duran Amezcua María Angélica 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1190">
   <si>
     <t>NC</t>
   </si>
@@ -2010,6 +2010,9 @@
     <t>ESPINOSA</t>
   </si>
   <si>
+    <t>LARA</t>
+  </si>
+  <si>
     <t>MEDRANO</t>
   </si>
   <si>
@@ -2031,6 +2034,9 @@
     <t>PAZ</t>
   </si>
   <si>
+    <t>VILLAR</t>
+  </si>
+  <si>
     <t>MONTERO</t>
   </si>
   <si>
@@ -2076,6 +2082,9 @@
     <t>SALOMON</t>
   </si>
   <si>
+    <t>VICTOR SAUL</t>
+  </si>
+  <si>
     <t>ALEXIS YAIR</t>
   </si>
   <si>
@@ -2124,6 +2133,9 @@
     <t>salhomartinez@gmail.com</t>
   </si>
   <si>
+    <t>villars789@gmail.com</t>
+  </si>
+  <si>
     <t>alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -2178,6 +2190,9 @@
     <t>2722606082</t>
   </si>
   <si>
+    <t>2721691246</t>
+  </si>
+  <si>
     <t>2721811447</t>
   </si>
   <si>
@@ -2247,6 +2262,9 @@
     <t>SALOMÓN DE JESUS EVARISTO</t>
   </si>
   <si>
+    <t>LETICIA VILLAR HERNANDEZ</t>
+  </si>
+  <si>
     <t>ALEJANDRO MARTÍNEZ AMEZCUA</t>
   </si>
   <si>
@@ -2286,6 +2304,9 @@
     <t>salomartinez9610@gmail.com</t>
   </si>
   <si>
+    <t>luna13.notaria@gmail.com</t>
+  </si>
+  <si>
     <t>Alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -2320,6 +2341,9 @@
   </si>
   <si>
     <t>2721843803</t>
+  </si>
+  <si>
+    <t>2722328582</t>
   </si>
   <si>
     <t>2722290436</t>
@@ -6007,7 +6031,7 @@
         <v>477</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6071,7 +6095,7 @@
         <v>478</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6304,7 +6328,7 @@
         <v>406</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6494,6 +6518,9 @@
       <c r="J5" t="s">
         <v>641</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -7184,7 +7211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7242,22 +7269,22 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="G2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="H2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7271,25 +7298,25 @@
         <v>661</v>
       </c>
       <c r="C3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H3" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="J3" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -7303,25 +7330,25 @@
         <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F4" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H4" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="J4" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7335,28 +7362,28 @@
         <v>662</v>
       </c>
       <c r="C5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E5" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="G5" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H5" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="I5" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="J5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -7370,25 +7397,25 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F6" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="H6" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="I6" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="J6" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7405,19 +7432,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="G7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="H7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7431,28 +7458,28 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="G8" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="H8" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="I8" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="J8" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7466,28 +7493,28 @@
         <v>493</v>
       </c>
       <c r="C9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D9" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E9" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="G9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="H9" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="I9" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7504,22 +7531,22 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E10" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F10" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="H10" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="I10" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="J10" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -7536,22 +7563,22 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E11" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F11" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H11" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="I11" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="J11" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -7568,25 +7595,25 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E12" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F12" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="G12" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H12" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="I12" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="J12" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7594,69 +7621,63 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920067</v>
+        <v>19330051920064</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>663</v>
       </c>
       <c r="C13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F13" t="s">
-        <v>719</v>
-      </c>
-      <c r="G13" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="H13" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="I13" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="J13" t="s">
-        <v>719</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920068</v>
+        <v>19330051920067</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>688</v>
       </c>
       <c r="E14" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F14" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="H14" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="I14" t="s">
-        <v>702</v>
+        <v>762</v>
       </c>
       <c r="J14" t="s">
-        <v>767</v>
+        <v>724</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7664,31 +7685,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920069</v>
+        <v>19330051920068</v>
       </c>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>686</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F15" t="s">
-        <v>721</v>
+        <v>725</v>
+      </c>
+      <c r="G15" t="s">
+        <v>725</v>
       </c>
       <c r="H15" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="I15" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="J15" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7696,63 +7720,63 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920074</v>
+        <v>19330051920069</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>664</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>674</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>689</v>
       </c>
       <c r="E16" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F16" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="H16" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="I16" t="s">
-        <v>704</v>
+        <v>763</v>
       </c>
       <c r="J16" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>18330051920078</v>
+        <v>19330051920074</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>498</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>687</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="H17" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="I17" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="J17" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -7760,25 +7784,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920075</v>
+        <v>18330051920078</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>673</v>
+        <v>291</v>
       </c>
       <c r="D18" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E18" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F18" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H18" t="s">
-        <v>747</v>
+        <v>752</v>
+      </c>
+      <c r="I18" t="s">
+        <v>764</v>
+      </c>
+      <c r="J18" t="s">
+        <v>778</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7786,36 +7816,62 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
+        <v>19330051920075</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>675</v>
+      </c>
+      <c r="D19" t="s">
+        <v>691</v>
+      </c>
+      <c r="E19" t="s">
+        <v>710</v>
+      </c>
+      <c r="F19" t="s">
+        <v>729</v>
+      </c>
+      <c r="H19" t="s">
+        <v>753</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
         <v>19330051920081</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>689</v>
-      </c>
-      <c r="E19" t="s">
-        <v>707</v>
-      </c>
-      <c r="F19" t="s">
-        <v>725</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D20" t="s">
+        <v>692</v>
+      </c>
+      <c r="E20" t="s">
+        <v>711</v>
+      </c>
+      <c r="F20" t="s">
         <v>730</v>
       </c>
-      <c r="H19" t="s">
-        <v>748</v>
-      </c>
-      <c r="I19" t="s">
-        <v>758</v>
-      </c>
-      <c r="J19" t="s">
-        <v>771</v>
-      </c>
-      <c r="K19">
+      <c r="G20" t="s">
+        <v>735</v>
+      </c>
+      <c r="H20" t="s">
+        <v>754</v>
+      </c>
+      <c r="I20" t="s">
+        <v>765</v>
+      </c>
+      <c r="J20" t="s">
+        <v>779</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
     </row>
@@ -7881,31 +7937,31 @@
         <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C2" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="F2" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="G2" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H2" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="I2" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="J2" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -7919,28 +7975,28 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D3" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="E3" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="F3" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="G3" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="H3" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="I3" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="J3" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -7951,31 +8007,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="C4" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="D4" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="E4" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="F4" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="G4" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="H4" t="s">
+        <v>903</v>
+      </c>
+      <c r="I4" t="s">
+        <v>934</v>
+      </c>
+      <c r="J4" t="s">
         <v>895</v>
-      </c>
-      <c r="I4" t="s">
-        <v>926</v>
-      </c>
-      <c r="J4" t="s">
-        <v>887</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -7986,31 +8042,31 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="D5" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="E5" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="F5" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="H5" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="I5" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="J5" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8018,31 +8074,31 @@
         <v>19330051920316</v>
       </c>
       <c r="B6" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="E6" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="F6" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="G6" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="H6" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="I6" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="J6" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -8053,28 +8109,28 @@
         <v>19330051920318</v>
       </c>
       <c r="B7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="E7" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="F7" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="H7" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="I7" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="J7" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8088,19 +8144,19 @@
         <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D8" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="E8" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="F8" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="H8" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8111,28 +8167,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C9" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D9" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="E9" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="F9" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="H9" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="I9" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="J9" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -8149,22 +8205,22 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="E10" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="F10" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="G10" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="H10" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="J10" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8178,28 +8234,28 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D11" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="E11" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="F11" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="G11" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="H11" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="I11" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="J11" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8216,25 +8272,25 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="F12" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="G12" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="H12" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="I12" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="J12" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -8248,25 +8304,25 @@
         <v>504</v>
       </c>
       <c r="C13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="E13" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="F13" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="H13" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="I13" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="J13" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8283,22 +8339,22 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="E14" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="F14" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="G14" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="H14" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="J14" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8309,28 +8365,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="E15" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="F15" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="H15" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="I15" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="J15" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -8347,25 +8403,25 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="F16" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="G16" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="H16" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="I16" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="J16" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8376,28 +8432,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B17" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="E17" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="F17" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="H17" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="I17" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="J17" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -8408,31 +8464,31 @@
         <v>19330051920337</v>
       </c>
       <c r="B18" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="C18" t="s">
         <v>289</v>
       </c>
       <c r="D18" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="F18" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="G18" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="H18" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="I18" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="J18" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8443,7 +8499,7 @@
         <v>19330051920338</v>
       </c>
       <c r="B19" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="C19" t="s">
         <v>492</v>
@@ -8452,22 +8508,22 @@
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="F19" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="G19" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="H19" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="I19" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="J19" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8478,22 +8534,22 @@
         <v>19330051920342</v>
       </c>
       <c r="B20" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C20" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="D20" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="E20" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="F20" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="H20" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8504,31 +8560,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B21" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C21" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D21" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="E21" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="F21" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="G21" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="H21" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="I21" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="J21" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -8542,25 +8598,25 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="D22" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="E22" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="F22" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="H22" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="I22" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="J22" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -8574,28 +8630,28 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="D23" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="E23" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="F23" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="G23" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="H23" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="I23" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="J23" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -8612,22 +8668,22 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="E24" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="F24" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="G24" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="H24" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="J24" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -8644,25 +8700,25 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="E25" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="F25" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="G25" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="H25" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="I25" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="J25" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -8679,25 +8735,25 @@
         <v>290</v>
       </c>
       <c r="D26" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="E26" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="F26" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="G26" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="H26" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="I26" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="J26" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -8711,28 +8767,28 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D27" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E27" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="F27" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="G27" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="H27" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="I27" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="J27" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -8743,31 +8799,31 @@
         <v>19330051920351</v>
       </c>
       <c r="B28" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="C28" t="s">
         <v>497</v>
       </c>
       <c r="D28" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="E28" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="F28" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="G28" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="H28" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="I28" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="J28" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -8778,25 +8834,25 @@
         <v>19330051920352</v>
       </c>
       <c r="B29" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="C29" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D29" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="E29" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="F29" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="H29" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="J29" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -8807,31 +8863,31 @@
         <v>19330051920354</v>
       </c>
       <c r="B30" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="F30" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="G30" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="H30" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="I30" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="J30" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8842,22 +8898,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B31" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="E31" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="F31" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="H31" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -8868,31 +8924,31 @@
         <v>19330051920355</v>
       </c>
       <c r="B32" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="C32" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="D32" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="E32" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="F32" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="G32" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="H32" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="I32" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="J32" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -8960,28 +9016,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="C2" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="D2" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="E2" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="F2" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="G2" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="H2" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="J2" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8998,22 +9054,22 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="E3" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="F3" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="H3" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="I3" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="J3" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9030,25 +9086,25 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="E4" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="F4" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="G4" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="H4" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="I4" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="J4" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9059,31 +9115,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="C5" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="D5" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="E5" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="F5" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="G5" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="H5" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="I5" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="J5" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9094,31 +9150,31 @@
         <v>19330051920250</v>
       </c>
       <c r="B6" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="C6" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="D6" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="E6" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="F6" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="G6" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="H6" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="I6" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="J6" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9132,28 +9188,28 @@
         <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="D7" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E7" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="F7" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="G7" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="H7" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="I7" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="J7" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9167,25 +9223,25 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="D8" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="E8" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="F8" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="G8" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="H8" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="I8" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9202,22 +9258,22 @@
         <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="E9" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="F9" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="H9" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="I9" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="J9" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9234,25 +9290,25 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="E10" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="F10" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="G10" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="H10" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="I10" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="J10" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9266,28 +9322,28 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="D11" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="E11" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="F11" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="G11" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="H11" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="I11" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="J11" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9304,25 +9360,25 @@
         <v>282</v>
       </c>
       <c r="D12" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="E12" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="F12" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="G12" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="H12" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="I12" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="J12" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -9336,28 +9392,28 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="D13" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="E13" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="F13" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="G13" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="H13" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="I13" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="J13" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9371,28 +9427,28 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="D14" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="E14" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="F14" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="G14" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="H14" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="I14" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="J14" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -9406,25 +9462,25 @@
         <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="D15" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="E15" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="F15" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="G15" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="H15" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="I15" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -9438,28 +9494,28 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D16" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="E16" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="F16" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="G16" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="H16" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="I16" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="J16" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9470,31 +9526,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="C17" t="s">
         <v>501</v>
       </c>
       <c r="D17" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="E17" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="F17" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="G17" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="H17" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="I17" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="J17" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9508,28 +9564,28 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="D18" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="E18" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="F18" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="G18" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="H18" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="I18" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="J18" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -9540,31 +9596,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="C19" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="D19" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="E19" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="F19" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="G19" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="H19" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="I19" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="J19" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9575,22 +9631,22 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="E20" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="F20" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="H20" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9601,31 +9657,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="C21" t="s">
         <v>301</v>
       </c>
       <c r="D21" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="E21" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="F21" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="G21" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="H21" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="I21" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="J21" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9636,22 +9692,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="C22" t="s">
         <v>301</v>
       </c>
       <c r="D22" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="E22" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="F22" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="H22" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9665,28 +9721,28 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="D23" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="E23" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="F23" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="G23" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="H23" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="I23" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="J23" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9697,28 +9753,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="C24" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="D24" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E24" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="F24" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="H24" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="I24" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="J24" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -9735,25 +9791,25 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="E25" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="F25" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="G25" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="H25" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="I25" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="J25" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -9770,25 +9826,25 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="E26" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="F26" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="G26" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="H26" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="I26" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="J26" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9805,25 +9861,25 @@
         <v>299</v>
       </c>
       <c r="D27" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="E27" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="F27" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="G27" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="H27" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="I27" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="J27" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9837,28 +9893,28 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="D28" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="E28" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="F28" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="G28" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="H28" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="I28" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="J28" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9869,28 +9925,28 @@
         <v>19330051920407</v>
       </c>
       <c r="B29" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E29" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="F29" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="H29" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="I29" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="J29" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -9907,22 +9963,22 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="E30" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="G30" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="H30" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="I30" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="J30" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -9936,28 +9992,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="D31" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="E31" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="F31" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="G31" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="H31" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="I31" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="J31" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -9968,25 +10024,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="E32" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="F32" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="H32" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="I32" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -9997,22 +10053,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="C33" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="D33" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="E33" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="F33" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="H33" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="K33">
         <v>2</v>

--- a/Duran Amezcua María Angélica 20212.xlsx
+++ b/Duran Amezcua María Angélica 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1197">
   <si>
     <t>NC</t>
   </si>
@@ -864,6 +864,9 @@
     <t>2721972586</t>
   </si>
   <si>
+    <t>CADEZA</t>
+  </si>
+  <si>
     <t>CONDADO</t>
   </si>
   <si>
@@ -912,6 +915,9 @@
     <t>TEZOCO</t>
   </si>
   <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
     <t>GARATE</t>
   </si>
   <si>
@@ -954,6 +960,9 @@
     <t>JOSE ANTONIO</t>
   </si>
   <si>
+    <t>IRVING OTTONIEL</t>
+  </si>
+  <si>
     <t>BRAYAN</t>
   </si>
   <si>
@@ -1035,6 +1044,9 @@
     <t>tezocoaguilar06@gmail.com</t>
   </si>
   <si>
+    <t>irving12gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>bcastillorojas981@gmail.com</t>
   </si>
   <si>
@@ -1125,6 +1137,9 @@
     <t>2727843486</t>
   </si>
   <si>
+    <t>2721796968</t>
+  </si>
+  <si>
     <t>5565129100</t>
   </si>
   <si>
@@ -1248,6 +1263,9 @@
     <t>ANTONIO AGUILAR TEXOCO</t>
   </si>
   <si>
+    <t>WENDY ELIZABETH GALLARDO SANDRIA</t>
+  </si>
+  <si>
     <t>JOSÉ EBER CASTILLO MARÍN</t>
   </si>
   <si>
@@ -1335,6 +1353,9 @@
     <t>antonioaguilar0826@gmail.com</t>
   </si>
   <si>
+    <t>wendy27gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>nikolasr848@gmail.com</t>
   </si>
   <si>
@@ -1401,6 +1422,9 @@
     <t>2721830619</t>
   </si>
   <si>
+    <t>2721721543</t>
+  </si>
+  <si>
     <t>2723563922</t>
   </si>
   <si>
@@ -2416,9 +2440,6 @@
   </si>
   <si>
     <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
   </si>
   <si>
     <t>MONTERROSAS</t>
@@ -5276,7 +5297,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5334,28 +5355,28 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="J2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5369,28 +5390,28 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J3" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5398,69 +5419,63 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>19330051920090</v>
+        <v>19330051920088</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="J4" t="s">
-        <v>460</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>19330051920089</v>
+        <v>19330051920090</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="I5" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J5" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5468,34 +5483,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920092</v>
+        <v>19330051920089</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H6" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="I6" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="J6" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5503,325 +5518,325 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920093</v>
+        <v>19330051920092</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F7" t="s">
-        <v>371</v>
+        <v>375</v>
+      </c>
+      <c r="G7" t="s">
+        <v>375</v>
       </c>
       <c r="H7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="I7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920094</v>
+        <v>19330051920093</v>
       </c>
       <c r="B8" t="s">
         <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>417</v>
+      </c>
+      <c r="I8" t="s">
+        <v>448</v>
       </c>
       <c r="J8" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920095</v>
+        <v>19330051920094</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H9" t="s">
-        <v>413</v>
-      </c>
-      <c r="I9" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="J9" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920097</v>
+        <v>19330051920095</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="H10" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="J10" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920098</v>
+        <v>19330051920097</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>379</v>
+      </c>
+      <c r="G11" t="s">
+        <v>401</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>420</v>
+      </c>
+      <c r="I11" t="s">
+        <v>450</v>
       </c>
       <c r="J11" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920099</v>
+        <v>19330051920098</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
-      </c>
-      <c r="G12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H12" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="J12" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920100</v>
+        <v>19330051920099</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F13" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G13" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="H13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I13" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="J13" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920101</v>
+        <v>19330051920100</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F14" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H14" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="I14" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="J14" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920102</v>
+        <v>19330051920101</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>383</v>
+      </c>
+      <c r="G15" t="s">
+        <v>403</v>
       </c>
       <c r="H15" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I15" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J15" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920105</v>
+        <v>19330051920102</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
-      </c>
-      <c r="G16" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H16" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="I16" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="J16" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5829,69 +5844,69 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920103</v>
+        <v>19330051920105</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H17" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="I17" t="s">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="J17" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920106</v>
+        <v>19330051920103</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G18" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H18" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="I18" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="J18" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -5899,66 +5914,69 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920107</v>
+        <v>19330051920106</v>
       </c>
       <c r="B19" t="s">
         <v>286</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F19" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G19" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H19" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="I19" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="J19" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920109</v>
+        <v>19330051920107</v>
       </c>
       <c r="B20" t="s">
         <v>287</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>388</v>
+      </c>
+      <c r="G20" t="s">
+        <v>406</v>
       </c>
       <c r="H20" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I20" t="s">
-        <v>354</v>
+        <v>456</v>
       </c>
       <c r="J20" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5966,34 +5984,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920110</v>
+        <v>19330051920109</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F21" t="s">
-        <v>385</v>
-      </c>
-      <c r="G21" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H21" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I21" t="s">
-        <v>450</v>
+        <v>358</v>
       </c>
       <c r="J21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -6001,66 +6016,69 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920112</v>
+        <v>19330051920110</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E22" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H22" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I22" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
       <c r="J22" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920001</v>
+        <v>19330051920112</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E23" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F23" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G23" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H23" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I23" t="s">
-        <v>451</v>
+        <v>360</v>
+      </c>
+      <c r="J23" t="s">
+        <v>485</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -6068,31 +6086,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920115</v>
+        <v>19330051920001</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E24" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F24" t="s">
-        <v>388</v>
+        <v>392</v>
+      </c>
+      <c r="G24" t="s">
+        <v>407</v>
       </c>
       <c r="H24" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I24" t="s">
-        <v>452</v>
-      </c>
-      <c r="J24" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -6100,136 +6118,133 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920116</v>
+        <v>19330051920115</v>
       </c>
       <c r="B25" t="s">
         <v>289</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F25" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H25" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I25" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="J25" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920117</v>
+        <v>19330051920116</v>
       </c>
       <c r="B26" t="s">
         <v>290</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F26" t="s">
-        <v>390</v>
-      </c>
-      <c r="G26" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H26" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I26" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J26" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920118</v>
+        <v>19330051920117</v>
       </c>
       <c r="B27" t="s">
         <v>291</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="D27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E27" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G27" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H27" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I27" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="J27" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920119</v>
+        <v>19330051920118</v>
       </c>
       <c r="B28" t="s">
         <v>292</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E28" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G28" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="H28" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I28" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="J28" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -6237,28 +6252,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920120</v>
+        <v>19330051920119</v>
       </c>
       <c r="B29" t="s">
         <v>293</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E29" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F29" t="s">
-        <v>393</v>
+        <v>397</v>
+      </c>
+      <c r="G29" t="s">
+        <v>397</v>
       </c>
       <c r="H29" t="s">
-        <v>433</v>
+        <v>438</v>
+      </c>
+      <c r="I29" t="s">
+        <v>463</v>
       </c>
       <c r="J29" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -6266,68 +6287,97 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920121</v>
+        <v>19330051920120</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F30" t="s">
-        <v>394</v>
-      </c>
-      <c r="G30" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H30" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="J30" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
+        <v>19330051920121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" t="s">
+        <v>399</v>
+      </c>
+      <c r="G31" t="s">
+        <v>410</v>
+      </c>
+      <c r="H31" t="s">
+        <v>440</v>
+      </c>
+      <c r="J31" t="s">
+        <v>491</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
         <v>19330051920122</v>
       </c>
-      <c r="B31" t="s">
-        <v>294</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="s">
-        <v>335</v>
-      </c>
-      <c r="E31" t="s">
-        <v>365</v>
-      </c>
-      <c r="F31" t="s">
-        <v>395</v>
-      </c>
-      <c r="G31" t="s">
-        <v>406</v>
-      </c>
-      <c r="H31" t="s">
-        <v>435</v>
-      </c>
-      <c r="I31" t="s">
-        <v>457</v>
-      </c>
-      <c r="J31" t="s">
-        <v>406</v>
-      </c>
-      <c r="K31">
+      <c r="D32" t="s">
+        <v>338</v>
+      </c>
+      <c r="E32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" t="s">
+        <v>411</v>
+      </c>
+      <c r="H32" t="s">
+        <v>441</v>
+      </c>
+      <c r="I32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J32" t="s">
+        <v>411</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
     </row>
@@ -6393,28 +6443,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="F2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="G2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="H2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="J2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -6425,31 +6475,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E3" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="F3" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="G3" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H3" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="I3" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="J3" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6460,31 +6510,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E4" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F4" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="G4" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="H4" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="J4" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -6495,28 +6545,28 @@
         <v>19330051920226</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E5" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="F5" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="H5" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="J5" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -6527,31 +6577,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E6" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="G6" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="H6" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="I6" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="J6" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -6562,31 +6612,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="F7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="G7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="H7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="I7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="J7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -6597,31 +6647,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E8" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="G8" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="H8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="I8" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="J8" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -6632,31 +6682,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E9" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="F9" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="G9" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="H9" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="I9" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="J9" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6667,31 +6717,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B10" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="I10" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6702,31 +6752,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="F11" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="G11" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="H11" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="I11" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="J11" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -6737,31 +6787,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C12" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D12" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="E12" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="F12" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="G12" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="H12" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="I12" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="J12" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6775,25 +6825,25 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D13" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E13" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F13" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="G13" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="H13" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="J13" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -6804,31 +6854,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B14" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D14" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="E14" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="G14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="H14" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="I14" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="J14" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -6839,28 +6889,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="E15" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="F15" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="H15" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="I15" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="J15" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6871,31 +6921,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E16" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="F16" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G16" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H16" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="I16" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="J16" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -6906,31 +6956,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F17" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="G17" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="I17" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="J17" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -6941,31 +6991,31 @@
         <v>19330051420227</v>
       </c>
       <c r="B18" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C18" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D18" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="E18" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="F18" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G18" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="H18" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="I18" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="J18" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -6976,28 +7026,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C19" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D19" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E19" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F19" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="H19" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="I19" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="J19" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -7008,31 +7058,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C20" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D20" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="E20" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F20" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="G20" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H20" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="I20" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="J20" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -7043,31 +7093,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C21" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="E21" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F21" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G21" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="H21" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I21" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="J21" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7084,25 +7134,25 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E22" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F22" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G22" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H22" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="I22" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="J22" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -7116,25 +7166,25 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D23" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E23" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="F23" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="H23" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="I23" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="J23" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7151,22 +7201,22 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F24" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G24" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="H24" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J24" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -7177,28 +7227,28 @@
         <v>19330051920245</v>
       </c>
       <c r="B25" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C25" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D25" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="E25" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="F25" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="H25" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="I25" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="J25" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -7269,22 +7319,22 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="F2" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="H2" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7295,28 +7345,28 @@
         <v>19330051920046</v>
       </c>
       <c r="B3" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C3" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D3" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E3" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="F3" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G3" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="H3" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="J3" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -7327,28 +7377,28 @@
         <v>19330051920049</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E4" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="F4" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="H4" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="J4" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7359,31 +7409,31 @@
         <v>19330051920053</v>
       </c>
       <c r="B5" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D5" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="E5" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="F5" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G5" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="H5" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="I5" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="J5" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -7397,25 +7447,25 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D6" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="E6" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="F6" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="H6" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="I6" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="J6" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7432,19 +7482,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="E7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="F7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="G7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="H7" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7458,28 +7508,28 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="E8" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="F8" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G8" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="H8" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="I8" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="J8" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7490,31 +7540,31 @@
         <v>18330051920022</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D9" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E9" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="F9" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G9" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="H9" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="I9" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="J9" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7531,22 +7581,22 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="H10" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="I10" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="J10" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -7563,22 +7613,22 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="E11" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="F11" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="H11" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="I11" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="J11" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -7595,25 +7645,25 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="E12" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="F12" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G12" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="H12" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="I12" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="J12" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7624,28 +7674,28 @@
         <v>19330051920064</v>
       </c>
       <c r="B13" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D13" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="E13" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="F13" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H13" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="I13" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="J13" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7656,28 +7706,28 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D14" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="E14" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F14" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="G14" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="H14" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="I14" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="J14" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7691,28 +7741,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D15" t="s">
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="F15" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G15" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="H15" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="I15" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="J15" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7723,28 +7773,28 @@
         <v>19330051920069</v>
       </c>
       <c r="B16" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="C16" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="E16" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="F16" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="H16" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="I16" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="J16" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -7755,7 +7805,7 @@
         <v>19330051920074</v>
       </c>
       <c r="B17" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -7764,19 +7814,19 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="F17" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="H17" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="I17" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="J17" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -7787,28 +7837,28 @@
         <v>18330051920078</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E18" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F18" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="H18" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="I18" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="J18" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7822,19 +7872,19 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D19" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="F19" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="H19" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -7851,25 +7901,25 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="E20" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F20" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G20" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="H20" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="I20" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="J20" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -7937,31 +7987,31 @@
         <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C2" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="F2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="G2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="H2" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="I2" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="J2" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -7975,28 +8025,28 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D3" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E3" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F3" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="G3" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="H3" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="I3" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="J3" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -8007,31 +8057,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="C4" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D4" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="E4" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="F4" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="G4" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="H4" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="I4" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="J4" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8042,28 +8092,28 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="C5" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="D5" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="E5" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="F5" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="H5" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I5" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="J5" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -8074,31 +8124,31 @@
         <v>19330051920316</v>
       </c>
       <c r="B6" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="E6" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="F6" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="G6" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="H6" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="I6" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="J6" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -8109,28 +8159,28 @@
         <v>19330051920318</v>
       </c>
       <c r="B7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E7" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="F7" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="H7" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="I7" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="J7" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8141,22 +8191,22 @@
         <v>19330051920319</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D8" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="E8" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="F8" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="H8" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8167,28 +8217,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B9" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="C9" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="D9" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="E9" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="F9" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="H9" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="I9" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="J9" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -8205,22 +8255,22 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="E10" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="F10" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="G10" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="H10" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="J10" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8234,28 +8284,28 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>799</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="E11" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="F11" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="G11" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="H11" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="I11" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="J11" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8272,25 +8322,25 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="E12" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="F12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="H12" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="I12" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="J12" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -8301,28 +8351,28 @@
         <v>19330051920330</v>
       </c>
       <c r="B13" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C13" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D13" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="E13" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="F13" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="H13" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="I13" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="J13" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8339,22 +8389,22 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E14" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="F14" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="G14" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="H14" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="J14" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8365,28 +8415,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B15" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="E15" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="F15" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="H15" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="I15" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="J15" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -8403,25 +8453,25 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="E16" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="F16" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="G16" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="H16" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="I16" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="J16" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8432,28 +8482,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B17" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E17" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="F17" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="H17" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="I17" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="J17" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -8464,31 +8514,31 @@
         <v>19330051920337</v>
       </c>
       <c r="B18" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D18" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="E18" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="F18" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="G18" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="H18" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="I18" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="J18" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8499,31 +8549,31 @@
         <v>19330051920338</v>
       </c>
       <c r="B19" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="C19" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="F19" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="G19" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H19" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="I19" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="J19" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8534,22 +8584,22 @@
         <v>19330051920342</v>
       </c>
       <c r="B20" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C20" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D20" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="E20" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="F20" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="H20" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8560,31 +8610,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C21" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D21" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="E21" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="F21" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="G21" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="H21" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="I21" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="J21" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -8598,25 +8648,25 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="D22" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="E22" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="F22" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="H22" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="I22" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="J22" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -8630,28 +8680,28 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D23" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="E23" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="F23" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="G23" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="H23" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="I23" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="J23" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -8668,22 +8718,22 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="E24" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="F24" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="G24" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="H24" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="J24" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -8700,25 +8750,25 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="E25" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="F25" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="G25" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="H25" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="I25" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="J25" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -8732,28 +8782,28 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D26" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="E26" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="F26" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="G26" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="H26" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="I26" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="J26" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -8767,28 +8817,28 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="D27" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="E27" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="F27" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="G27" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="H27" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="I27" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="J27" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -8799,31 +8849,31 @@
         <v>19330051920351</v>
       </c>
       <c r="B28" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="C28" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D28" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="E28" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="F28" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="G28" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="H28" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="I28" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="J28" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -8834,25 +8884,25 @@
         <v>19330051920352</v>
       </c>
       <c r="B29" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="C29" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D29" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="E29" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="F29" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="H29" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="J29" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -8863,31 +8913,31 @@
         <v>19330051920354</v>
       </c>
       <c r="B30" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="E30" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="F30" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="G30" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="H30" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="I30" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="J30" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8898,22 +8948,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B31" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="E31" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="F31" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="H31" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -8924,31 +8974,31 @@
         <v>19330051920355</v>
       </c>
       <c r="B32" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="C32" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D32" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="E32" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="F32" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="G32" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="H32" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="I32" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="J32" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -9016,28 +9066,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="C2" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="E2" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="F2" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="G2" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="H2" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="J2" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9054,22 +9104,22 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="E3" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="F3" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="H3" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="I3" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="J3" t="s">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9086,25 +9136,25 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="E4" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="F4" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="G4" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="H4" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="I4" t="s">
-        <v>1142</v>
+        <v>1149</v>
       </c>
       <c r="J4" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9115,31 +9165,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="C5" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D5" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="E5" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="F5" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="G5" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="H5" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="I5" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="J5" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9150,31 +9200,31 @@
         <v>19330051920250</v>
       </c>
       <c r="B6" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="C6" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="D6" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="E6" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="F6" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="G6" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="H6" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="I6" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="J6" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9185,31 +9235,31 @@
         <v>19330051920251</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D7" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="E7" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="F7" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="G7" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="H7" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="I7" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="J7" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9223,25 +9273,25 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="D8" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="E8" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="F8" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="G8" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="H8" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="I8" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9252,28 +9302,28 @@
         <v>19330051920253</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="E9" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="F9" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="H9" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="I9" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
       <c r="J9" t="s">
-        <v>1172</v>
+        <v>1179</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9290,25 +9340,25 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="E10" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="F10" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="G10" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="H10" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="I10" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="J10" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9322,28 +9372,28 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="E11" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="F11" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="G11" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="H11" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="I11" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="J11" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9357,28 +9407,28 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="E12" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="F12" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="G12" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="H12" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="I12" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
       <c r="J12" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -9392,28 +9442,28 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="E13" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="F13" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="G13" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="H13" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="I13" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
       <c r="J13" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9427,28 +9477,28 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="D14" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="E14" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="F14" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="G14" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="H14" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="I14" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
       <c r="J14" t="s">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -9459,28 +9509,28 @@
         <v>19330051920259</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="D15" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="E15" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="F15" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="G15" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="H15" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="I15" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -9494,28 +9544,28 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="D16" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="E16" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="F16" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="G16" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="H16" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="I16" t="s">
-        <v>1152</v>
+        <v>1159</v>
       </c>
       <c r="J16" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9526,31 +9576,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="C17" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D17" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="E17" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="F17" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="G17" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="H17" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="I17" t="s">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="J17" t="s">
-        <v>1179</v>
+        <v>1186</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9564,28 +9614,28 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="D18" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="E18" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="F18" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="G18" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="H18" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="I18" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="J18" t="s">
-        <v>1180</v>
+        <v>1187</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -9596,31 +9646,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="C19" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="D19" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="E19" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="F19" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="G19" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="H19" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="I19" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="J19" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9631,22 +9681,22 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="E20" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="F20" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="H20" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9657,31 +9707,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="E21" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="F21" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="G21" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="H21" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="I21" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="J21" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9692,22 +9742,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="E22" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="F22" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="H22" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9721,28 +9771,28 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="D23" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="E23" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="F23" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="G23" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="H23" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="I23" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="J23" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9753,28 +9803,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="C24" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D24" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="E24" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="F24" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="H24" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="I24" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="J24" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -9791,25 +9841,25 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="E25" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="F25" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="G25" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="H25" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="I25" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="J25" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -9820,31 +9870,31 @@
         <v>19330051920348</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="E26" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="F26" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="G26" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="H26" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="I26" t="s">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="J26" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9855,31 +9905,31 @@
         <v>19330051920405</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="E27" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="F27" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="G27" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="H27" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="I27" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="J27" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9893,28 +9943,28 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="D28" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="E28" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="F28" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="G28" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="H28" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="I28" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="J28" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9925,28 +9975,28 @@
         <v>19330051920407</v>
       </c>
       <c r="B29" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="E29" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="F29" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="H29" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="I29" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
       <c r="J29" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -9963,22 +10013,22 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="E30" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="G30" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="H30" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="I30" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="J30" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -9992,28 +10042,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="D31" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="E31" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F31" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="G31" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="H31" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="I31" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="J31" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -10024,25 +10074,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="E32" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="F32" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="H32" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="I32" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10053,22 +10103,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="C33" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D33" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="E33" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F33" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="H33" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
       <c r="K33">
         <v>2</v>

--- a/Duran Amezcua María Angélica 20212.xlsx
+++ b/Duran Amezcua María Angélica 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1202">
   <si>
     <t>NC</t>
   </si>
@@ -2436,6 +2436,9 @@
     <t>ARENAS</t>
   </si>
   <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
     <t>AULIS</t>
   </si>
   <si>
@@ -2463,6 +2466,9 @@
     <t>JOSMAR ANTONIO</t>
   </si>
   <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
     <t>GIOVANNI</t>
   </si>
   <si>
@@ -2553,6 +2559,9 @@
     <t>belloarenas123@gmail.com</t>
   </si>
   <si>
+    <t>kevininamador11@gmail.com</t>
+  </si>
+  <si>
     <t>gioglez2004@gmail.com</t>
   </si>
   <si>
@@ -2646,6 +2655,9 @@
     <t>2721855688</t>
   </si>
   <si>
+    <t>2722355008</t>
+  </si>
+  <si>
     <t>2722620504</t>
   </si>
   <si>
@@ -2755,6 +2767,9 @@
   </si>
   <si>
     <t>JOSE ANTONIO BELLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CELIA AMADOR GARCIA</t>
   </si>
   <si>
     <t>CASILDO CERVANTES MOLOHUA</t>
@@ -7932,7 +7947,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7996,22 +8011,22 @@
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="H2" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I2" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="J2" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -8028,25 +8043,25 @@
         <v>802</v>
       </c>
       <c r="D3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F3" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G3" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="H3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="I3" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="J3" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -8063,25 +8078,25 @@
         <v>803</v>
       </c>
       <c r="D4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F4" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G4" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="H4" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="I4" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="J4" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8098,22 +8113,22 @@
         <v>804</v>
       </c>
       <c r="D5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F5" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="H5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="I5" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="J5" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -8121,156 +8136,150 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920316</v>
+        <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>791</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>805</v>
       </c>
       <c r="D6" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E6" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F6" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="G6" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="H6" t="s">
-        <v>912</v>
-      </c>
-      <c r="I6" t="s">
-        <v>844</v>
-      </c>
-      <c r="J6" t="s">
-        <v>962</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920318</v>
+        <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
-        <v>683</v>
+        <v>791</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F7" t="s">
-        <v>876</v>
+        <v>879</v>
+      </c>
+      <c r="G7" t="s">
+        <v>879</v>
       </c>
       <c r="H7" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="I7" t="s">
-        <v>943</v>
+        <v>847</v>
       </c>
       <c r="J7" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920319</v>
+        <v>19330051920318</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>683</v>
       </c>
       <c r="C8" t="s">
-        <v>805</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F8" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="H8" t="s">
-        <v>914</v>
+        <v>918</v>
+      </c>
+      <c r="I8" t="s">
+        <v>948</v>
+      </c>
+      <c r="J8" t="s">
+        <v>968</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920323</v>
+        <v>19330051920319</v>
       </c>
       <c r="B9" t="s">
-        <v>675</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>806</v>
       </c>
       <c r="D9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E9" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F9" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H9" t="s">
-        <v>915</v>
-      </c>
-      <c r="I9" t="s">
-        <v>944</v>
-      </c>
-      <c r="J9" t="s">
-        <v>964</v>
+        <v>919</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920441</v>
+        <v>19330051920323</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>675</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>807</v>
       </c>
       <c r="D10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E10" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F10" t="s">
-        <v>879</v>
-      </c>
-      <c r="G10" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="H10" t="s">
-        <v>916</v>
+        <v>920</v>
+      </c>
+      <c r="I10" t="s">
+        <v>949</v>
       </c>
       <c r="J10" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8278,165 +8287,165 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920325</v>
+        <v>19330051920441</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E11" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F11" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G11" t="s">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="H11" t="s">
-        <v>917</v>
-      </c>
-      <c r="I11" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="J11" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920321</v>
+        <v>19330051920325</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E12" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F12" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="G12" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H12" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="I12" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="J12" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920330</v>
+        <v>19330051920321</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>676</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E13" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F13" t="s">
-        <v>882</v>
+        <v>885</v>
+      </c>
+      <c r="G13" t="s">
+        <v>885</v>
       </c>
       <c r="H13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="I13" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="J13" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920332</v>
+        <v>19330051920330</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>512</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>676</v>
       </c>
       <c r="D14" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E14" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F14" t="s">
-        <v>883</v>
-      </c>
-      <c r="G14" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="H14" t="s">
-        <v>920</v>
+        <v>924</v>
+      </c>
+      <c r="I14" t="s">
+        <v>952</v>
       </c>
       <c r="J14" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920331</v>
+        <v>19330051920332</v>
       </c>
       <c r="B15" t="s">
-        <v>792</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F15" t="s">
-        <v>884</v>
+        <v>887</v>
+      </c>
+      <c r="G15" t="s">
+        <v>887</v>
       </c>
       <c r="H15" t="s">
-        <v>921</v>
-      </c>
-      <c r="I15" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="J15" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -8444,66 +8453,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920333</v>
+        <v>19330051920331</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>792</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E16" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F16" t="s">
-        <v>885</v>
-      </c>
-      <c r="G16" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="H16" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="I16" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="J16" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920334</v>
+        <v>19330051920333</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E17" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F17" t="s">
-        <v>886</v>
+        <v>889</v>
+      </c>
+      <c r="G17" t="s">
+        <v>889</v>
       </c>
       <c r="H17" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I17" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="J17" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -8511,95 +8520,101 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920337</v>
+        <v>19330051920334</v>
       </c>
       <c r="B18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E18" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F18" t="s">
-        <v>887</v>
-      </c>
-      <c r="G18" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="H18" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="I18" t="s">
-        <v>856</v>
+        <v>955</v>
       </c>
       <c r="J18" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920338</v>
+        <v>19330051920337</v>
       </c>
       <c r="B19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C19" t="s">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>828</v>
       </c>
       <c r="E19" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F19" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="G19" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="H19" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="I19" t="s">
-        <v>951</v>
+        <v>859</v>
       </c>
       <c r="J19" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920342</v>
+        <v>19330051920338</v>
       </c>
       <c r="B20" t="s">
-        <v>678</v>
+        <v>795</v>
       </c>
       <c r="C20" t="s">
-        <v>807</v>
+        <v>500</v>
       </c>
       <c r="D20" t="s">
-        <v>827</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F20" t="s">
-        <v>889</v>
+        <v>892</v>
+      </c>
+      <c r="G20" t="s">
+        <v>908</v>
       </c>
       <c r="H20" t="s">
-        <v>926</v>
+        <v>930</v>
+      </c>
+      <c r="I20" t="s">
+        <v>956</v>
+      </c>
+      <c r="J20" t="s">
+        <v>979</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8607,238 +8622,229 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920341</v>
+        <v>19330051920342</v>
       </c>
       <c r="B21" t="s">
-        <v>796</v>
+        <v>678</v>
       </c>
       <c r="C21" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="D21" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E21" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F21" t="s">
-        <v>890</v>
-      </c>
-      <c r="G21" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="H21" t="s">
-        <v>927</v>
-      </c>
-      <c r="I21" t="s">
-        <v>952</v>
-      </c>
-      <c r="J21" t="s">
-        <v>975</v>
+        <v>931</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920344</v>
+        <v>19330051920341</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>796</v>
       </c>
       <c r="C22" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E22" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F22" t="s">
-        <v>891</v>
+        <v>894</v>
+      </c>
+      <c r="G22" t="s">
+        <v>894</v>
       </c>
       <c r="H22" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="I22" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="J22" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920347</v>
+        <v>19330051920344</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="D23" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E23" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F23" t="s">
-        <v>892</v>
-      </c>
-      <c r="G23" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="H23" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="I23" t="s">
-        <v>861</v>
+        <v>958</v>
       </c>
       <c r="J23" t="s">
-        <v>892</v>
+        <v>981</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920440</v>
+        <v>19330051920347</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>809</v>
       </c>
       <c r="D24" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E24" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F24" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G24" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="H24" t="s">
-        <v>930</v>
+        <v>934</v>
+      </c>
+      <c r="I24" t="s">
+        <v>864</v>
       </c>
       <c r="J24" t="s">
-        <v>977</v>
+        <v>896</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920345</v>
+        <v>19330051920440</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E25" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F25" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="G25" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="H25" t="s">
-        <v>931</v>
-      </c>
-      <c r="I25" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="J25" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920346</v>
+        <v>19330051920345</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E26" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F26" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="G26" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="H26" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="I26" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="J26" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920350</v>
+        <v>19330051920346</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>809</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E27" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F27" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="G27" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="H27" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="I27" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="J27" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -8846,34 +8852,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920351</v>
+        <v>19330051920350</v>
       </c>
       <c r="B28" t="s">
-        <v>797</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>505</v>
+        <v>810</v>
       </c>
       <c r="D28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E28" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F28" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="G28" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="H28" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="I28" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="J28" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -8881,63 +8887,63 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920352</v>
+        <v>19330051920351</v>
       </c>
       <c r="B29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C29" t="s">
-        <v>810</v>
+        <v>505</v>
       </c>
       <c r="D29" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E29" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F29" t="s">
-        <v>898</v>
+        <v>901</v>
+      </c>
+      <c r="G29" t="s">
+        <v>911</v>
       </c>
       <c r="H29" t="s">
-        <v>935</v>
+        <v>939</v>
+      </c>
+      <c r="I29" t="s">
+        <v>962</v>
       </c>
       <c r="J29" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920354</v>
+        <v>19330051920352</v>
       </c>
       <c r="B30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>811</v>
       </c>
       <c r="D30" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E30" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F30" t="s">
-        <v>899</v>
-      </c>
-      <c r="G30" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="H30" t="s">
-        <v>936</v>
-      </c>
-      <c r="I30" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="J30" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8945,62 +8951,97 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>19330051920353</v>
+        <v>19330051920354</v>
       </c>
       <c r="B31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E31" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F31" t="s">
-        <v>900</v>
+        <v>903</v>
+      </c>
+      <c r="G31" t="s">
+        <v>903</v>
       </c>
       <c r="H31" t="s">
-        <v>937</v>
+        <v>941</v>
+      </c>
+      <c r="I31" t="s">
+        <v>963</v>
+      </c>
+      <c r="J31" t="s">
+        <v>988</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
+        <v>19330051920353</v>
+      </c>
+      <c r="B32" t="s">
+        <v>800</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>840</v>
+      </c>
+      <c r="E32" t="s">
+        <v>872</v>
+      </c>
+      <c r="F32" t="s">
+        <v>904</v>
+      </c>
+      <c r="H32" t="s">
+        <v>942</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
         <v>19330051920355</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>799</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>799</v>
       </c>
-      <c r="D32" t="s">
-        <v>839</v>
-      </c>
-      <c r="E32" t="s">
-        <v>870</v>
-      </c>
-      <c r="F32" t="s">
-        <v>901</v>
-      </c>
-      <c r="G32" t="s">
-        <v>901</v>
-      </c>
-      <c r="H32" t="s">
-        <v>938</v>
-      </c>
-      <c r="I32" t="s">
-        <v>870</v>
-      </c>
-      <c r="J32" t="s">
-        <v>984</v>
-      </c>
-      <c r="K32">
+      <c r="D33" t="s">
+        <v>841</v>
+      </c>
+      <c r="E33" t="s">
+        <v>873</v>
+      </c>
+      <c r="F33" t="s">
+        <v>905</v>
+      </c>
+      <c r="G33" t="s">
+        <v>905</v>
+      </c>
+      <c r="H33" t="s">
+        <v>943</v>
+      </c>
+      <c r="I33" t="s">
+        <v>873</v>
+      </c>
+      <c r="J33" t="s">
+        <v>989</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
     </row>
@@ -9066,28 +9107,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E2" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="F2" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="G2" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="H2" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="J2" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9104,22 +9145,22 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="E3" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="F3" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="H3" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="I3" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="J3" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9136,25 +9177,25 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="E4" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="F4" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="G4" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="H4" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="I4" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="J4" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9165,31 +9206,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="C5" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="D5" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E5" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="F5" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="G5" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="H5" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="I5" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="J5" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9200,31 +9241,31 @@
         <v>19330051920250</v>
       </c>
       <c r="B6" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="C6" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D6" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E6" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="F6" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="G6" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="H6" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="I6" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="J6" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9238,28 +9279,28 @@
         <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="D7" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E7" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="F7" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="G7" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="H7" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="I7" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="J7" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9273,25 +9314,25 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="D8" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E8" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="F8" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="G8" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="H8" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="I8" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9308,22 +9349,22 @@
         <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="E9" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="F9" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="H9" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="I9" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="J9" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9340,25 +9381,25 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="E10" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="F10" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="G10" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="H10" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="I10" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="J10" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9372,28 +9413,28 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="D11" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E11" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="F11" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="G11" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="H11" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="I11" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="J11" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9410,25 +9451,25 @@
         <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E12" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="F12" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="G12" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="H12" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="I12" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="J12" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -9442,28 +9483,28 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D13" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="E13" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="F13" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="G13" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="H13" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="I13" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="J13" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9477,28 +9518,28 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D14" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E14" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="F14" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="G14" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="H14" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="I14" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="J14" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -9512,25 +9553,25 @@
         <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="D15" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E15" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="F15" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="G15" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="H15" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="I15" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -9544,28 +9585,28 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="D16" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="E16" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="F16" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="G16" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="H16" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="I16" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="J16" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9576,31 +9617,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="C17" t="s">
         <v>509</v>
       </c>
       <c r="D17" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="E17" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="F17" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="G17" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="H17" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="I17" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="J17" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9614,28 +9655,28 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="D18" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="E18" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="F18" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="G18" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="H18" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="I18" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="J18" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -9646,31 +9687,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="C19" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D19" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="E19" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="F19" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="G19" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="H19" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="I19" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="J19" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9687,16 +9728,16 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="E20" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="F20" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="H20" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9707,31 +9748,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="C21" t="s">
         <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="E21" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="F21" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="G21" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="H21" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="I21" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="J21" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9742,22 +9783,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="C22" t="s">
         <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="E22" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="F22" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="H22" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9771,28 +9812,28 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D23" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="E23" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="F23" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="G23" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="H23" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="I23" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="J23" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9803,28 +9844,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="C24" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="D24" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="E24" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="F24" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="H24" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="I24" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="J24" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -9841,25 +9882,25 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="E25" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="F25" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="G25" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="H25" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="I25" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="J25" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -9876,25 +9917,25 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="E26" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="F26" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="G26" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="H26" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="I26" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="J26" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9911,25 +9952,25 @@
         <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="E27" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="F27" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="G27" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="H27" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="I27" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="J27" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9943,28 +9984,28 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D28" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="E28" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="F28" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="G28" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="H28" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="I28" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="J28" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9975,7 +10016,7 @@
         <v>19330051920407</v>
       </c>
       <c r="B29" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -9984,19 +10025,19 @@
         <v>700</v>
       </c>
       <c r="E29" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="F29" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="H29" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="I29" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="J29" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -10013,22 +10054,22 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="E30" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="G30" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="H30" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="I30" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="J30" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -10042,28 +10083,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="D31" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="E31" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="F31" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="G31" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="H31" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="I31" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="J31" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -10074,25 +10115,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="E32" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="F32" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="H32" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="I32" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10103,22 +10144,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="C33" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D33" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="E33" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="F33" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="H33" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="K33">
         <v>2</v>

--- a/Duran Amezcua María Angélica 20212.xlsx
+++ b/Duran Amezcua María Angélica 20212.xlsx
@@ -5460,6 +5460,9 @@
       <c r="J4" t="s">
         <v>467</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
@@ -5854,7 +5857,7 @@
         <v>478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7712,6 +7715,9 @@
       <c r="J13" t="s">
         <v>782</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
@@ -8159,6 +8165,9 @@
       <c r="H6" t="s">
         <v>916</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
